--- a/document/docs/pg0001/詳細設計.xlsx
+++ b/document/docs/pg0001/詳細設計.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\pythonbase\document\docs\pg0001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\pythonbase\pythonbase\document\docs\pg0001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81FF7BB-6B54-47DD-85F8-A8F77F57A869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DDB56A-DD61-4812-B3E2-09716825739E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{B7C0FE37-24B5-4B6B-86B1-54C95A5D177E}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
   <si>
     <t>プログラムコード</t>
     <phoneticPr fontId="1"/>
@@ -506,11 +506,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Hello Python</t>
+    <t>(なし)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(なし)</t>
+    <t>こんにちわサザナミインコさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準出力を行う。</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジュンシュツリョク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -697,7 +707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,6 +752,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2444,23 +2457,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B2:CR2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:CQ4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:CQ5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:CQ6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:CQ7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:CQ8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:CQ9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:CQ10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:CQ11"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:CQ15"/>
     <mergeCell ref="B12:E12"/>
@@ -2469,6 +2465,23 @@
     <mergeCell ref="F13:CQ13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="F14:CQ14"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:CQ9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:CQ10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:CQ11"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:CQ6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:CQ7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:CQ8"/>
+    <mergeCell ref="B2:CR2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:CQ4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:CQ5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3753,26 +3766,24 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="P6:AR6"/>
-    <mergeCell ref="C6:O6"/>
-    <mergeCell ref="AS5:CS8"/>
-    <mergeCell ref="AO12:BE12"/>
-    <mergeCell ref="AO13:BE13"/>
-    <mergeCell ref="C7:O7"/>
-    <mergeCell ref="P7:AR7"/>
-    <mergeCell ref="C8:O8"/>
-    <mergeCell ref="P8:AR8"/>
-    <mergeCell ref="G13:W13"/>
-    <mergeCell ref="X13:AN13"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="B2:CR2"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="C5:O5"/>
-    <mergeCell ref="P4:AR4"/>
-    <mergeCell ref="AS4:CS4"/>
-    <mergeCell ref="P5:AR5"/>
+    <mergeCell ref="BW22:CM22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:W23"/>
+    <mergeCell ref="X23:AN23"/>
+    <mergeCell ref="AO23:BE23"/>
+    <mergeCell ref="BF23:BV23"/>
+    <mergeCell ref="BW23:CM23"/>
+    <mergeCell ref="X22:AN22"/>
+    <mergeCell ref="AO22:BE22"/>
+    <mergeCell ref="BF22:BV22"/>
+    <mergeCell ref="X12:AN12"/>
+    <mergeCell ref="AO11:BE11"/>
+    <mergeCell ref="AO17:BE17"/>
+    <mergeCell ref="G11:W11"/>
+    <mergeCell ref="BW21:CM21"/>
+    <mergeCell ref="X21:AN21"/>
+    <mergeCell ref="AO21:BE21"/>
+    <mergeCell ref="BF21:BV21"/>
     <mergeCell ref="AO18:BE18"/>
     <mergeCell ref="AO14:BE14"/>
     <mergeCell ref="G14:W14"/>
@@ -3788,26 +3799,28 @@
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="G21:W21"/>
     <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B2:CR2"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="C5:O5"/>
+    <mergeCell ref="P4:AR4"/>
+    <mergeCell ref="AS4:CS4"/>
+    <mergeCell ref="P5:AR5"/>
+    <mergeCell ref="P6:AR6"/>
+    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="AS5:CS8"/>
+    <mergeCell ref="AO12:BE12"/>
+    <mergeCell ref="AO13:BE13"/>
+    <mergeCell ref="C7:O7"/>
+    <mergeCell ref="P7:AR7"/>
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="P8:AR8"/>
+    <mergeCell ref="G13:W13"/>
+    <mergeCell ref="X13:AN13"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
     <mergeCell ref="X11:AN11"/>
     <mergeCell ref="G12:W12"/>
-    <mergeCell ref="X12:AN12"/>
-    <mergeCell ref="AO11:BE11"/>
-    <mergeCell ref="AO17:BE17"/>
-    <mergeCell ref="G11:W11"/>
-    <mergeCell ref="BW21:CM21"/>
-    <mergeCell ref="BW22:CM22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:W23"/>
-    <mergeCell ref="X23:AN23"/>
-    <mergeCell ref="AO23:BE23"/>
-    <mergeCell ref="BF23:BV23"/>
-    <mergeCell ref="BW23:CM23"/>
-    <mergeCell ref="X21:AN21"/>
-    <mergeCell ref="AO21:BE21"/>
-    <mergeCell ref="X22:AN22"/>
-    <mergeCell ref="AO22:BE22"/>
-    <mergeCell ref="BF21:BV21"/>
-    <mergeCell ref="BF22:BV22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5905,6 +5918,118 @@
     </row>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:AO5"/>
+    <mergeCell ref="AP5:BD5"/>
+    <mergeCell ref="BE5:BS5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:T4"/>
+    <mergeCell ref="U4:AO4"/>
+    <mergeCell ref="AP4:BD4"/>
+    <mergeCell ref="BE4:BS4"/>
+    <mergeCell ref="BE10:BS10"/>
+    <mergeCell ref="BE11:BS11"/>
+    <mergeCell ref="BE12:BS12"/>
+    <mergeCell ref="BE13:BS13"/>
+    <mergeCell ref="BE14:BS14"/>
+    <mergeCell ref="BE15:BS15"/>
+    <mergeCell ref="AP13:BD13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:T14"/>
+    <mergeCell ref="U14:AO14"/>
+    <mergeCell ref="AP14:BD14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:T13"/>
+    <mergeCell ref="U13:AO13"/>
+    <mergeCell ref="U10:AO10"/>
+    <mergeCell ref="AP10:BD10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:T11"/>
+    <mergeCell ref="U11:AO11"/>
+    <mergeCell ref="AP11:BD11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:T12"/>
+    <mergeCell ref="U12:AO12"/>
+    <mergeCell ref="AP12:BD12"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:T19"/>
+    <mergeCell ref="U19:AO19"/>
+    <mergeCell ref="AP19:BJ19"/>
+    <mergeCell ref="BK19:BY19"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:T15"/>
+    <mergeCell ref="U15:AO15"/>
+    <mergeCell ref="AP15:BD15"/>
+    <mergeCell ref="BZ23:CN23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:T22"/>
+    <mergeCell ref="U22:AO22"/>
+    <mergeCell ref="AP22:BJ22"/>
+    <mergeCell ref="BK22:BY22"/>
+    <mergeCell ref="BZ22:CN22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:T23"/>
+    <mergeCell ref="U23:AO23"/>
+    <mergeCell ref="AP23:BJ23"/>
+    <mergeCell ref="BK23:BY23"/>
+    <mergeCell ref="BZ25:CN25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:T24"/>
+    <mergeCell ref="U24:AO24"/>
+    <mergeCell ref="AP24:BJ24"/>
+    <mergeCell ref="BK24:BY24"/>
+    <mergeCell ref="BZ24:CN24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:T25"/>
+    <mergeCell ref="U25:AO25"/>
+    <mergeCell ref="AP25:BJ25"/>
+    <mergeCell ref="BK25:BY25"/>
+    <mergeCell ref="BZ27:CN27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:T26"/>
+    <mergeCell ref="U26:AO26"/>
+    <mergeCell ref="AP26:BJ26"/>
+    <mergeCell ref="BK26:BY26"/>
+    <mergeCell ref="BZ26:CN26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:T27"/>
+    <mergeCell ref="U27:AO27"/>
+    <mergeCell ref="AP27:BJ27"/>
+    <mergeCell ref="BK27:BY27"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:T29"/>
+    <mergeCell ref="U29:AO29"/>
+    <mergeCell ref="AP29:BJ29"/>
+    <mergeCell ref="BK29:BY29"/>
+    <mergeCell ref="BZ29:CN29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:T28"/>
+    <mergeCell ref="U28:AO28"/>
+    <mergeCell ref="AP28:BJ28"/>
+    <mergeCell ref="BK28:BY28"/>
+    <mergeCell ref="BZ28:CN28"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:T31"/>
+    <mergeCell ref="U31:AO31"/>
+    <mergeCell ref="AP31:BJ31"/>
+    <mergeCell ref="BK31:BY31"/>
+    <mergeCell ref="BZ31:CN31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:T30"/>
+    <mergeCell ref="U30:AO30"/>
+    <mergeCell ref="AP30:BJ30"/>
+    <mergeCell ref="BK30:BY30"/>
+    <mergeCell ref="BZ30:CN30"/>
+    <mergeCell ref="CO23:DC23"/>
+    <mergeCell ref="CO31:DC31"/>
+    <mergeCell ref="CO25:DC25"/>
+    <mergeCell ref="CO26:DC26"/>
+    <mergeCell ref="CO27:DC27"/>
+    <mergeCell ref="CO28:DC28"/>
+    <mergeCell ref="CO29:DC29"/>
+    <mergeCell ref="CO30:DC30"/>
+    <mergeCell ref="CO24:DC24"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:T6"/>
     <mergeCell ref="U6:AO6"/>
@@ -5929,118 +6054,6 @@
     <mergeCell ref="BZ19:CN19"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:T10"/>
-    <mergeCell ref="CO23:DC23"/>
-    <mergeCell ref="CO31:DC31"/>
-    <mergeCell ref="CO25:DC25"/>
-    <mergeCell ref="CO26:DC26"/>
-    <mergeCell ref="CO27:DC27"/>
-    <mergeCell ref="CO28:DC28"/>
-    <mergeCell ref="CO29:DC29"/>
-    <mergeCell ref="CO30:DC30"/>
-    <mergeCell ref="CO24:DC24"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:T31"/>
-    <mergeCell ref="U31:AO31"/>
-    <mergeCell ref="AP31:BJ31"/>
-    <mergeCell ref="BK31:BY31"/>
-    <mergeCell ref="BZ31:CN31"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:T30"/>
-    <mergeCell ref="U30:AO30"/>
-    <mergeCell ref="AP30:BJ30"/>
-    <mergeCell ref="BK30:BY30"/>
-    <mergeCell ref="BZ30:CN30"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:T29"/>
-    <mergeCell ref="U29:AO29"/>
-    <mergeCell ref="AP29:BJ29"/>
-    <mergeCell ref="BK29:BY29"/>
-    <mergeCell ref="BZ29:CN29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:T28"/>
-    <mergeCell ref="U28:AO28"/>
-    <mergeCell ref="AP28:BJ28"/>
-    <mergeCell ref="BK28:BY28"/>
-    <mergeCell ref="BZ28:CN28"/>
-    <mergeCell ref="BZ27:CN27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:T26"/>
-    <mergeCell ref="U26:AO26"/>
-    <mergeCell ref="AP26:BJ26"/>
-    <mergeCell ref="BK26:BY26"/>
-    <mergeCell ref="BZ26:CN26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:T27"/>
-    <mergeCell ref="U27:AO27"/>
-    <mergeCell ref="AP27:BJ27"/>
-    <mergeCell ref="BK27:BY27"/>
-    <mergeCell ref="BZ25:CN25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:T24"/>
-    <mergeCell ref="U24:AO24"/>
-    <mergeCell ref="AP24:BJ24"/>
-    <mergeCell ref="BK24:BY24"/>
-    <mergeCell ref="BZ24:CN24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:T25"/>
-    <mergeCell ref="U25:AO25"/>
-    <mergeCell ref="AP25:BJ25"/>
-    <mergeCell ref="BK25:BY25"/>
-    <mergeCell ref="BZ23:CN23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:T22"/>
-    <mergeCell ref="U22:AO22"/>
-    <mergeCell ref="AP22:BJ22"/>
-    <mergeCell ref="BK22:BY22"/>
-    <mergeCell ref="BZ22:CN22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:T23"/>
-    <mergeCell ref="U23:AO23"/>
-    <mergeCell ref="AP23:BJ23"/>
-    <mergeCell ref="BK23:BY23"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:T19"/>
-    <mergeCell ref="U19:AO19"/>
-    <mergeCell ref="AP19:BJ19"/>
-    <mergeCell ref="BK19:BY19"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:T15"/>
-    <mergeCell ref="U15:AO15"/>
-    <mergeCell ref="AP15:BD15"/>
-    <mergeCell ref="BE10:BS10"/>
-    <mergeCell ref="BE11:BS11"/>
-    <mergeCell ref="BE12:BS12"/>
-    <mergeCell ref="BE13:BS13"/>
-    <mergeCell ref="BE14:BS14"/>
-    <mergeCell ref="BE15:BS15"/>
-    <mergeCell ref="AP13:BD13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:T14"/>
-    <mergeCell ref="U14:AO14"/>
-    <mergeCell ref="AP14:BD14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:T13"/>
-    <mergeCell ref="U13:AO13"/>
-    <mergeCell ref="U10:AO10"/>
-    <mergeCell ref="AP10:BD10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:T11"/>
-    <mergeCell ref="U11:AO11"/>
-    <mergeCell ref="AP11:BD11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:T12"/>
-    <mergeCell ref="U12:AO12"/>
-    <mergeCell ref="AP12:BD12"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="U5:AO5"/>
-    <mergeCell ref="AP5:BD5"/>
-    <mergeCell ref="BE5:BS5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:T4"/>
-    <mergeCell ref="U4:AO4"/>
-    <mergeCell ref="AP4:BD4"/>
-    <mergeCell ref="BE4:BS4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6049,10 +6062,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCC1237-16DD-47FC-9C59-2E49C2F01E8E}">
-  <dimension ref="B2:CP52"/>
+  <dimension ref="B2:CP53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="AI45" sqref="AH45:AI45"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="BR46" sqref="BR46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7410,7 +7423,9 @@
       <c r="B40" s="1"/>
       <c r="I40" s="5"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="10"/>
+      <c r="K40" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
@@ -7527,7 +7542,7 @@
       <c r="BD43" s="10"/>
       <c r="CP43" s="5"/>
     </row>
-    <row r="44" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:94" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1"/>
       <c r="I44" s="5"/>
       <c r="J44" s="1"/>
@@ -7538,7 +7553,7 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
@@ -7569,91 +7584,95 @@
       <c r="AN44" s="10"/>
       <c r="AO44" s="10"/>
       <c r="AP44" s="10"/>
-      <c r="AQ44" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR44" s="10"/>
-      <c r="AS44" s="10"/>
-      <c r="AT44" s="10"/>
-      <c r="AU44" s="10"/>
-      <c r="AV44" s="10"/>
-      <c r="AW44" s="10"/>
-      <c r="AX44" s="10"/>
-      <c r="AY44" s="10"/>
-      <c r="AZ44" s="10"/>
-      <c r="BA44" s="10"/>
-      <c r="BB44" s="10"/>
-      <c r="BC44" s="10"/>
-      <c r="BD44" s="10"/>
+      <c r="AQ44" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR44" s="15"/>
+      <c r="AS44" s="15"/>
+      <c r="AT44" s="15"/>
+      <c r="AU44" s="15"/>
+      <c r="AV44" s="15"/>
+      <c r="AW44" s="15"/>
+      <c r="AX44" s="15"/>
+      <c r="AY44" s="15"/>
+      <c r="AZ44" s="15"/>
+      <c r="BA44" s="15"/>
+      <c r="BB44" s="15"/>
+      <c r="BC44" s="15"/>
+      <c r="BD44" s="15"/>
       <c r="CP44" s="5"/>
     </row>
-    <row r="45" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:94" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="1"/>
       <c r="I45" s="5"/>
       <c r="J45" s="1"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="10"/>
+      <c r="AJ45" s="10"/>
+      <c r="AK45" s="10"/>
+      <c r="AL45" s="10"/>
+      <c r="AM45" s="10"/>
+      <c r="AN45" s="10"/>
+      <c r="AO45" s="10"/>
+      <c r="AP45" s="10"/>
+      <c r="AQ45" s="15"/>
+      <c r="AR45" s="15"/>
+      <c r="AS45" s="15"/>
+      <c r="AT45" s="15"/>
+      <c r="AU45" s="15"/>
+      <c r="AV45" s="15"/>
+      <c r="AW45" s="15"/>
+      <c r="AX45" s="15"/>
+      <c r="AY45" s="15"/>
+      <c r="AZ45" s="15"/>
+      <c r="BA45" s="15"/>
+      <c r="BB45" s="15"/>
+      <c r="BC45" s="15"/>
+      <c r="BD45" s="15"/>
       <c r="CP45" s="5"/>
     </row>
     <row r="46" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="1"/>
       <c r="I46" s="5"/>
       <c r="J46" s="1"/>
-      <c r="K46" t="s">
-        <v>52</v>
-      </c>
       <c r="CP46" s="5"/>
     </row>
     <row r="47" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="1"/>
       <c r="I47" s="5"/>
       <c r="J47" s="1"/>
+      <c r="K47" t="s">
+        <v>52</v>
+      </c>
       <c r="CP47" s="5"/>
     </row>
     <row r="48" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="1"/>
       <c r="I48" s="5"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-      <c r="AB48" s="10"/>
-      <c r="AC48" s="10"/>
-      <c r="AD48" s="10"/>
-      <c r="AE48" s="10"/>
-      <c r="AF48" s="10"/>
-      <c r="AG48" s="10"/>
-      <c r="AH48" s="10"/>
-      <c r="AI48" s="10"/>
-      <c r="AJ48" s="10"/>
-      <c r="AK48" s="10"/>
-      <c r="AL48" s="10"/>
-      <c r="AM48" s="10"/>
-      <c r="AN48" s="10"/>
-      <c r="AO48" s="10"/>
-      <c r="AP48" s="10"/>
-      <c r="AQ48" s="10"/>
-      <c r="AR48" s="10"/>
-      <c r="AS48" s="10"/>
-      <c r="AT48" s="10"/>
-      <c r="AU48" s="10"/>
-      <c r="AV48" s="10"/>
-      <c r="AW48" s="10"/>
-      <c r="AX48" s="10"/>
       <c r="CP48" s="5"/>
     </row>
     <row r="49" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -7661,7 +7680,7 @@
       <c r="I49" s="5"/>
       <c r="J49" s="1"/>
       <c r="K49" s="10" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
@@ -7708,6 +7727,48 @@
       <c r="B50" s="1"/>
       <c r="I50" s="5"/>
       <c r="J50" s="1"/>
+      <c r="K50" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="10"/>
+      <c r="AI50" s="10"/>
+      <c r="AJ50" s="10"/>
+      <c r="AK50" s="10"/>
+      <c r="AL50" s="10"/>
+      <c r="AM50" s="10"/>
+      <c r="AN50" s="10"/>
+      <c r="AO50" s="10"/>
+      <c r="AP50" s="10"/>
+      <c r="AQ50" s="10"/>
+      <c r="AR50" s="10"/>
+      <c r="AS50" s="10"/>
+      <c r="AT50" s="10"/>
+      <c r="AU50" s="10"/>
+      <c r="AV50" s="10"/>
+      <c r="AW50" s="10"/>
+      <c r="AX50" s="10"/>
       <c r="CP50" s="5"/>
     </row>
     <row r="51" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -7717,120 +7778,156 @@
       <c r="CP51" s="5"/>
     </row>
     <row r="52" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="1"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="1"/>
+      <c r="CP52" s="5"/>
+    </row>
+    <row r="53" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="7" t="s">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="7"/>
-      <c r="Z52" s="7"/>
-      <c r="AA52" s="7"/>
-      <c r="AB52" s="7"/>
-      <c r="AC52" s="7"/>
-      <c r="AD52" s="7"/>
-      <c r="AE52" s="7"/>
-      <c r="AF52" s="7"/>
-      <c r="AG52" s="7"/>
-      <c r="AH52" s="7"/>
-      <c r="AI52" s="7"/>
-      <c r="AJ52" s="7"/>
-      <c r="AK52" s="7"/>
-      <c r="AL52" s="7"/>
-      <c r="AM52" s="7"/>
-      <c r="AN52" s="7"/>
-      <c r="AO52" s="7"/>
-      <c r="AP52" s="7"/>
-      <c r="AQ52" s="7"/>
-      <c r="AR52" s="7"/>
-      <c r="AS52" s="7"/>
-      <c r="AT52" s="7"/>
-      <c r="AU52" s="7"/>
-      <c r="AV52" s="7"/>
-      <c r="AW52" s="7"/>
-      <c r="AX52" s="7"/>
-      <c r="AY52" s="7"/>
-      <c r="AZ52" s="7"/>
-      <c r="BA52" s="7"/>
-      <c r="BB52" s="7"/>
-      <c r="BC52" s="7"/>
-      <c r="BD52" s="7"/>
-      <c r="BE52" s="7"/>
-      <c r="BF52" s="7"/>
-      <c r="BG52" s="7"/>
-      <c r="BH52" s="7"/>
-      <c r="BI52" s="7"/>
-      <c r="BJ52" s="7"/>
-      <c r="BK52" s="7"/>
-      <c r="BL52" s="7"/>
-      <c r="BM52" s="7"/>
-      <c r="BN52" s="7"/>
-      <c r="BO52" s="7"/>
-      <c r="BP52" s="7"/>
-      <c r="BQ52" s="7"/>
-      <c r="BR52" s="7"/>
-      <c r="BS52" s="7"/>
-      <c r="BT52" s="7"/>
-      <c r="BU52" s="7"/>
-      <c r="BV52" s="7"/>
-      <c r="BW52" s="7"/>
-      <c r="BX52" s="7"/>
-      <c r="BY52" s="7"/>
-      <c r="BZ52" s="7"/>
-      <c r="CA52" s="7"/>
-      <c r="CB52" s="7"/>
-      <c r="CC52" s="7"/>
-      <c r="CD52" s="7"/>
-      <c r="CE52" s="7"/>
-      <c r="CF52" s="7"/>
-      <c r="CG52" s="7"/>
-      <c r="CH52" s="7"/>
-      <c r="CI52" s="7"/>
-      <c r="CJ52" s="7"/>
-      <c r="CK52" s="7"/>
-      <c r="CL52" s="7"/>
-      <c r="CM52" s="7"/>
-      <c r="CN52" s="7"/>
-      <c r="CO52" s="7"/>
-      <c r="CP52" s="8"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="7"/>
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="7"/>
+      <c r="AK53" s="7"/>
+      <c r="AL53" s="7"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+      <c r="AO53" s="7"/>
+      <c r="AP53" s="7"/>
+      <c r="AQ53" s="7"/>
+      <c r="AR53" s="7"/>
+      <c r="AS53" s="7"/>
+      <c r="AT53" s="7"/>
+      <c r="AU53" s="7"/>
+      <c r="AV53" s="7"/>
+      <c r="AW53" s="7"/>
+      <c r="AX53" s="7"/>
+      <c r="AY53" s="7"/>
+      <c r="AZ53" s="7"/>
+      <c r="BA53" s="7"/>
+      <c r="BB53" s="7"/>
+      <c r="BC53" s="7"/>
+      <c r="BD53" s="7"/>
+      <c r="BE53" s="7"/>
+      <c r="BF53" s="7"/>
+      <c r="BG53" s="7"/>
+      <c r="BH53" s="7"/>
+      <c r="BI53" s="7"/>
+      <c r="BJ53" s="7"/>
+      <c r="BK53" s="7"/>
+      <c r="BL53" s="7"/>
+      <c r="BM53" s="7"/>
+      <c r="BN53" s="7"/>
+      <c r="BO53" s="7"/>
+      <c r="BP53" s="7"/>
+      <c r="BQ53" s="7"/>
+      <c r="BR53" s="7"/>
+      <c r="BS53" s="7"/>
+      <c r="BT53" s="7"/>
+      <c r="BU53" s="7"/>
+      <c r="BV53" s="7"/>
+      <c r="BW53" s="7"/>
+      <c r="BX53" s="7"/>
+      <c r="BY53" s="7"/>
+      <c r="BZ53" s="7"/>
+      <c r="CA53" s="7"/>
+      <c r="CB53" s="7"/>
+      <c r="CC53" s="7"/>
+      <c r="CD53" s="7"/>
+      <c r="CE53" s="7"/>
+      <c r="CF53" s="7"/>
+      <c r="CG53" s="7"/>
+      <c r="CH53" s="7"/>
+      <c r="CI53" s="7"/>
+      <c r="CJ53" s="7"/>
+      <c r="CK53" s="7"/>
+      <c r="CL53" s="7"/>
+      <c r="CM53" s="7"/>
+      <c r="CN53" s="7"/>
+      <c r="CO53" s="7"/>
+      <c r="CP53" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="J34:CP34"/>
-    <mergeCell ref="AQ43:BD43"/>
-    <mergeCell ref="AQ44:BD44"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="O43:AB43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="O44:AB44"/>
-    <mergeCell ref="K39:AX39"/>
-    <mergeCell ref="K40:AX40"/>
-    <mergeCell ref="AP28:BJ28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:S29"/>
-    <mergeCell ref="T29:AO29"/>
-    <mergeCell ref="AP29:BJ29"/>
+    <mergeCell ref="K49:AX49"/>
+    <mergeCell ref="K50:AX50"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:S10"/>
+    <mergeCell ref="T10:AO10"/>
+    <mergeCell ref="AP10:BJ10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:S11"/>
+    <mergeCell ref="T11:AO11"/>
+    <mergeCell ref="AP11:BJ11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:S12"/>
+    <mergeCell ref="T12:AO12"/>
+    <mergeCell ref="AP12:BJ12"/>
+    <mergeCell ref="K44:N45"/>
+    <mergeCell ref="O44:AB45"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="L4:AV4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="L5:AV5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="L6:AV6"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:S13"/>
+    <mergeCell ref="T13:AO13"/>
+    <mergeCell ref="AP13:BJ13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:S14"/>
+    <mergeCell ref="T14:AO14"/>
+    <mergeCell ref="AP14:BJ14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:S15"/>
+    <mergeCell ref="T15:AO15"/>
+    <mergeCell ref="AP15:BJ15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:S16"/>
+    <mergeCell ref="T16:AO16"/>
+    <mergeCell ref="AP16:BJ16"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="P20:AK20"/>
+    <mergeCell ref="AL20:BF20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="P21:AK21"/>
+    <mergeCell ref="AL21:BF21"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="F25:S25"/>
@@ -7847,50 +7944,20 @@
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="F28:S28"/>
     <mergeCell ref="T28:AO28"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="P20:AK20"/>
-    <mergeCell ref="AL20:BF20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="P21:AK21"/>
-    <mergeCell ref="AL21:BF21"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:S15"/>
-    <mergeCell ref="T15:AO15"/>
-    <mergeCell ref="AP15:BJ15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:S16"/>
-    <mergeCell ref="T16:AO16"/>
-    <mergeCell ref="AP16:BJ16"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:S13"/>
-    <mergeCell ref="T13:AO13"/>
-    <mergeCell ref="AP13:BJ13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:S14"/>
-    <mergeCell ref="T14:AO14"/>
-    <mergeCell ref="AP14:BJ14"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="L4:AV4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="L5:AV5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="L6:AV6"/>
+    <mergeCell ref="AP28:BJ28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:S29"/>
+    <mergeCell ref="T29:AO29"/>
+    <mergeCell ref="AP29:BJ29"/>
+    <mergeCell ref="J34:CP34"/>
+    <mergeCell ref="AQ43:BD43"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="O43:AB43"/>
+    <mergeCell ref="K39:AX39"/>
+    <mergeCell ref="K40:AX40"/>
     <mergeCell ref="AC43:AP43"/>
-    <mergeCell ref="AC44:AP44"/>
-    <mergeCell ref="K48:AX48"/>
-    <mergeCell ref="K49:AX49"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:S10"/>
-    <mergeCell ref="T10:AO10"/>
-    <mergeCell ref="AP10:BJ10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:S11"/>
-    <mergeCell ref="T11:AO11"/>
-    <mergeCell ref="AP11:BJ11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:S12"/>
-    <mergeCell ref="T12:AO12"/>
-    <mergeCell ref="AP12:BJ12"/>
+    <mergeCell ref="AC44:AP45"/>
+    <mergeCell ref="AQ44:BD45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
